--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3567,7 +3567,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B8"/>
+  <x:dimension ref="A1:D8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -3578,39 +3578,41 @@
     <x:col min="2" max="2" width="30.27" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" ht="41.65" customHeight="1">
+    <x:row r="1" spans="1:4" ht="41.65" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:2" ht="28.05" customHeight="1">
+    <x:row r="2" spans="1:4" ht="28.05" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:2">
+    <x:row r="4" spans="1:4">
       <x:c r="B4" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:2">
+    <x:row r="5" spans="1:4">
       <x:c r="B5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:2">
+    <x:row r="6" spans="1:4">
       <x:c r="B6" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:4">
       <x:c r="B7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:2">
+    <x:row r="8" spans="1:4">
       <x:c r="B8" s="0" t="s">
         <x:v>2</x:v>
       </x:c>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -2996,7 +2996,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="39">
+  <x:cellStyleXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -3060,62 +3060,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="39">
+  <x:cellXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -3198,78 +3144,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="85" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="10" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="15" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="20" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="25" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="30" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="35" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="40" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="50" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="55" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="60" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="65" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="75" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="80" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="85" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -3571,11 +3445,10 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="3" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="32.699999999999996" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="30.27" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="32.700624999999995" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.270625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="41.65" customHeight="1">
@@ -3645,28 +3518,27 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="20" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="4.13" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.41" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.770256760040404" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.576289475303874" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.260961299027443" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.822866767124673" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="19.265340043512055" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="18.592624243200127" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.809839139626163" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="16.922942200086933" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.938683245815344" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="14.864553081765205" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="13.708726487062471" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="12.48" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="11.187724971069681" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="9.841736393538671" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="8.4522780532120958" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="7.0299245670377379" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="5.5855009038858912" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.130625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="17.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.770881760040403" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.576914475303873" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.261586299027442" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="19.823491767124672" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="19.265965043512054" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="18.593249243200127" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.810464139626163" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.923567200086932" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.939308245815344" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="14.865178081765206" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="13.70935148706247" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="12.480625000000002" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="11.18834997106968" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="9.84236139353867" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="8.4529030532120952" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="7.0305495670377383" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="5.5861259038858915" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3753,86 +3625,85 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="20" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="4.13" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="51.980000000000004" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="72.868707473072035" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="72.29628574392369" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="71.347091287551464" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="70.02834804690761" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="68.3500924543324" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="66.325097048243734" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="63.968773266407617" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="61.29905415559103" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="58.336257890247751" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="55.102933138942333" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="51.62368745536709" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="47.925000000000004" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="44.035020017704959" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="39.98335260498137" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="35.80083339730372" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="31.519293891316593" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="27.171319187924773" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.130625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="51.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="72.869332473072035" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="72.296910743923689" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="71.347716287551464" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="70.028973046907609" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="68.3507174543324" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="66.325722048243733" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="63.969398266407616" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="61.299679155591029" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="58.33688289024775" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="55.103558138942333" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="51.62431245536709" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="47.925625000000004" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="44.035645017704958" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="39.983977604981369" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="35.801458397303719" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="31.519918891316593" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="27.171944187924773" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B1" s="21" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C1" s="22" t="s">
+      <x:c r="C1" s="4" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D1" s="23" t="s">
+      <x:c r="D1" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E1" s="24" t="s">
+      <x:c r="E1" s="6" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="F1" s="25" t="s">
+      <x:c r="F1" s="7" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="G1" s="26" t="s">
+      <x:c r="G1" s="8" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="H1" s="27" t="s">
+      <x:c r="H1" s="9" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="I1" s="28" t="s">
+      <x:c r="I1" s="10" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="J1" s="29" t="s">
+      <x:c r="J1" s="11" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="K1" s="30" t="s">
+      <x:c r="K1" s="12" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="L1" s="31" t="s">
+      <x:c r="L1" s="13" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="M1" s="32" t="s">
+      <x:c r="M1" s="14" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="N1" s="33" t="s">
+      <x:c r="N1" s="15" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="O1" s="34" t="s">
+      <x:c r="O1" s="16" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="P1" s="35" t="s">
+      <x:c r="P1" s="17" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="Q1" s="36" t="s">
+      <x:c r="Q1" s="18" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="R1" s="37" t="s">
+      <x:c r="R1" s="19" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="S1" s="38" t="s">
+      <x:c r="S1" s="20" t="s">
         <x:v>42</x:v>
       </x:c>
     </x:row>
@@ -3861,10 +3732,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="306" customHeight="1">
       <x:c r="A1" s="3" t="s">
@@ -3986,10 +3854,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="306" customHeight="1">
       <x:c r="A1" s="3" t="s">
@@ -3997,92 +3862,92 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="61.199999999999996" customHeight="1">
-      <x:c r="A2" s="21" t="s">
+      <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" ht="16.999999999999996" customHeight="1">
-      <x:c r="A3" s="22" t="s">
+      <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" ht="33.999999999999993" customHeight="1">
-      <x:c r="A4" s="23" t="s">
+      <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" ht="50.999999999999993" customHeight="1">
-      <x:c r="A5" s="24" t="s">
+      <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" ht="67.999999999999986" customHeight="1">
-      <x:c r="A6" s="25" t="s">
+      <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" ht="85" customHeight="1">
-      <x:c r="A7" s="26" t="s">
+      <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" ht="101.99999999999999" customHeight="1">
-      <x:c r="A8" s="27" t="s">
+      <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" ht="118.99999999999999" customHeight="1">
-      <x:c r="A9" s="28" t="s">
+      <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" ht="135.99999999999997" customHeight="1">
-      <x:c r="A10" s="29" t="s">
+      <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1" ht="153" customHeight="1">
-      <x:c r="A11" s="30" t="s">
+      <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" ht="170" customHeight="1">
-      <x:c r="A12" s="31" t="s">
+      <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" ht="187" customHeight="1">
-      <x:c r="A13" s="32" t="s">
+      <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" ht="203.99999999999997" customHeight="1">
-      <x:c r="A14" s="33" t="s">
+      <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" ht="221" customHeight="1">
-      <x:c r="A15" s="34" t="s">
+      <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" ht="237.99999999999997" customHeight="1">
-      <x:c r="A16" s="35" t="s">
+      <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1" ht="255" customHeight="1">
-      <x:c r="A17" s="36" t="s">
+      <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1" ht="271.99999999999994" customHeight="1">
-      <x:c r="A18" s="37" t="s">
+      <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1" ht="289" customHeight="1">
-      <x:c r="A19" s="38" t="s">
+      <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -2996,7 +2996,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="21">
+  <x:cellStyleXfs count="42">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -3060,8 +3060,71 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
+  <x:cellXfs count="42">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -3144,6 +3207,90 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="85" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="5" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="10" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="15" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="20" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="25" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="30" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="35" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="40" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="50" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="55" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="60" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="65" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="75" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="80" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="85" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -3452,41 +3599,41 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="41.65" customHeight="1">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="21" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s"/>
+      <x:c r="B1" s="22" t="s"/>
     </x:row>
     <x:row r="2" spans="1:4" ht="28.05" customHeight="1">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="A2" s="23" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
+      <x:c r="B2" s="22" t="s"/>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B4" s="22" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="B5" s="0" t="s">
+      <x:c r="B5" s="22" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="B6" s="0" t="s">
+      <x:c r="B6" s="22" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
+      <x:c r="C6" s="22" t="s"/>
+      <x:c r="D6" s="22" t="s"/>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="B7" s="0" t="s">
+      <x:c r="B7" s="22" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="B8" s="0" t="s">
+      <x:c r="B8" s="22" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
@@ -3542,61 +3689,61 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="24" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="22" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
+      <x:c r="C1" s="25" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D1" s="5" t="s">
+      <x:c r="D1" s="26" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E1" s="6" t="s">
+      <x:c r="E1" s="27" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F1" s="7" t="s">
+      <x:c r="F1" s="28" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G1" s="8" t="s">
+      <x:c r="G1" s="29" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H1" s="9" t="s">
+      <x:c r="H1" s="30" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="I1" s="10" t="s">
+      <x:c r="I1" s="31" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="J1" s="11" t="s">
+      <x:c r="J1" s="32" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="K1" s="12" t="s">
+      <x:c r="K1" s="33" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="L1" s="13" t="s">
+      <x:c r="L1" s="34" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="M1" s="14" t="s">
+      <x:c r="M1" s="35" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="N1" s="15" t="s">
+      <x:c r="N1" s="36" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="O1" s="16" t="s">
+      <x:c r="O1" s="37" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="P1" s="17" t="s">
+      <x:c r="P1" s="38" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="Q1" s="18" t="s">
+      <x:c r="Q1" s="39" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="R1" s="19" t="s">
+      <x:c r="R1" s="40" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="S1" s="20" t="s">
+      <x:c r="S1" s="41" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
@@ -3649,61 +3796,61 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="24" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="22" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
+      <x:c r="C1" s="25" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D1" s="5" t="s">
+      <x:c r="D1" s="26" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E1" s="6" t="s">
+      <x:c r="E1" s="27" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="F1" s="7" t="s">
+      <x:c r="F1" s="28" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="G1" s="8" t="s">
+      <x:c r="G1" s="29" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="H1" s="9" t="s">
+      <x:c r="H1" s="30" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="I1" s="10" t="s">
+      <x:c r="I1" s="31" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="J1" s="11" t="s">
+      <x:c r="J1" s="32" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="K1" s="12" t="s">
+      <x:c r="K1" s="33" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="L1" s="13" t="s">
+      <x:c r="L1" s="34" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="M1" s="14" t="s">
+      <x:c r="M1" s="35" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="N1" s="15" t="s">
+      <x:c r="N1" s="36" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="O1" s="16" t="s">
+      <x:c r="O1" s="37" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="P1" s="17" t="s">
+      <x:c r="P1" s="38" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="Q1" s="18" t="s">
+      <x:c r="Q1" s="39" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="R1" s="19" t="s">
+      <x:c r="R1" s="40" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="S1" s="20" t="s">
+      <x:c r="S1" s="41" t="s">
         <x:v>42</x:v>
       </x:c>
     </x:row>
@@ -3735,97 +3882,97 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="306" customHeight="1">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="24" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="15.299999999999999" customHeight="1">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="A2" s="22" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" ht="7.6499999999999986" customHeight="1">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="A3" s="25" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" ht="16.15" customHeight="1">
-      <x:c r="A4" s="5" t="s">
+      <x:c r="A4" s="26" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" ht="24.224999999999998" customHeight="1">
-      <x:c r="A5" s="6" t="s">
+      <x:c r="A5" s="27" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" ht="32.3" customHeight="1">
-      <x:c r="A6" s="7" t="s">
+      <x:c r="A6" s="28" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" ht="40.375" customHeight="1">
-      <x:c r="A7" s="8" t="s">
+      <x:c r="A7" s="29" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" ht="48.449999999999996" customHeight="1">
-      <x:c r="A8" s="9" t="s">
+      <x:c r="A8" s="30" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" ht="56.524999999999991" customHeight="1">
-      <x:c r="A9" s="10" t="s">
+      <x:c r="A9" s="31" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" ht="64.6" customHeight="1">
-      <x:c r="A10" s="11" t="s">
+      <x:c r="A10" s="32" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1" ht="72.675" customHeight="1">
-      <x:c r="A11" s="12" t="s">
+      <x:c r="A11" s="33" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" ht="80.75" customHeight="1">
-      <x:c r="A12" s="13" t="s">
+      <x:c r="A12" s="34" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" ht="88.825" customHeight="1">
-      <x:c r="A13" s="14" t="s">
+      <x:c r="A13" s="35" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" ht="96.899999999999991" customHeight="1">
-      <x:c r="A14" s="15" t="s">
+      <x:c r="A14" s="36" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" ht="104.975" customHeight="1">
-      <x:c r="A15" s="16" t="s">
+      <x:c r="A15" s="37" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" ht="113.04999999999998" customHeight="1">
-      <x:c r="A16" s="17" t="s">
+      <x:c r="A16" s="38" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1" ht="121.125" customHeight="1">
-      <x:c r="A17" s="18" t="s">
+      <x:c r="A17" s="39" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1" ht="129.2" customHeight="1">
-      <x:c r="A18" s="19" t="s">
+      <x:c r="A18" s="40" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1" ht="137.275" customHeight="1">
-      <x:c r="A19" s="20" t="s">
+      <x:c r="A19" s="41" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
@@ -3857,97 +4004,97 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="306" customHeight="1">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="24" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="61.199999999999996" customHeight="1">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="A2" s="22" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" ht="16.999999999999996" customHeight="1">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="A3" s="25" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" ht="33.999999999999993" customHeight="1">
-      <x:c r="A4" s="5" t="s">
+      <x:c r="A4" s="26" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" ht="50.999999999999993" customHeight="1">
-      <x:c r="A5" s="6" t="s">
+      <x:c r="A5" s="27" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" ht="67.999999999999986" customHeight="1">
-      <x:c r="A6" s="7" t="s">
+      <x:c r="A6" s="28" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" ht="85" customHeight="1">
-      <x:c r="A7" s="8" t="s">
+      <x:c r="A7" s="29" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" ht="101.99999999999999" customHeight="1">
-      <x:c r="A8" s="9" t="s">
+      <x:c r="A8" s="30" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" ht="118.99999999999999" customHeight="1">
-      <x:c r="A9" s="10" t="s">
+      <x:c r="A9" s="31" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" ht="135.99999999999997" customHeight="1">
-      <x:c r="A10" s="11" t="s">
+      <x:c r="A10" s="32" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1" ht="153" customHeight="1">
-      <x:c r="A11" s="12" t="s">
+      <x:c r="A11" s="33" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" ht="170" customHeight="1">
-      <x:c r="A12" s="13" t="s">
+      <x:c r="A12" s="34" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" ht="187" customHeight="1">
-      <x:c r="A13" s="14" t="s">
+      <x:c r="A13" s="35" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" ht="203.99999999999997" customHeight="1">
-      <x:c r="A14" s="15" t="s">
+      <x:c r="A14" s="36" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" ht="221" customHeight="1">
-      <x:c r="A15" s="16" t="s">
+      <x:c r="A15" s="37" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" ht="237.99999999999997" customHeight="1">
-      <x:c r="A16" s="17" t="s">
+      <x:c r="A16" s="38" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1" ht="255" customHeight="1">
-      <x:c r="A17" s="18" t="s">
+      <x:c r="A17" s="39" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1" ht="271.99999999999994" customHeight="1">
-      <x:c r="A18" s="19" t="s">
+      <x:c r="A18" s="40" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1" ht="289" customHeight="1">
-      <x:c r="A19" s="20" t="s">
+      <x:c r="A19" s="41" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -2996,7 +2996,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="42">
+  <x:cellStyleXfs count="39">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -3060,15 +3060,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -3120,11 +3114,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="42">
+  <x:cellXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -3207,90 +3198,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="85" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="5" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="10" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="15" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="20" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="25" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="30" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="35" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="40" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="50" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="55" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="60" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="65" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="75" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="80" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="85" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -3599,41 +3506,41 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="41.65" customHeight="1">
-      <x:c r="A1" s="21" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="22" t="s"/>
+      <x:c r="B1" s="0" t="s"/>
     </x:row>
     <x:row r="2" spans="1:4" ht="28.05" customHeight="1">
-      <x:c r="A2" s="23" t="s">
+      <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="22" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="B4" s="22" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="B5" s="22" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="B6" s="22" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C6" s="22" t="s"/>
-      <x:c r="D6" s="22" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="B7" s="22" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="B8" s="22" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
@@ -3689,61 +3596,61 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
-      <x:c r="A1" s="24" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B1" s="22" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C1" s="25" t="s">
+      <x:c r="C1" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D1" s="26" t="s">
+      <x:c r="D1" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E1" s="27" t="s">
+      <x:c r="E1" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F1" s="28" t="s">
+      <x:c r="F1" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G1" s="29" t="s">
+      <x:c r="G1" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H1" s="30" t="s">
+      <x:c r="H1" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="I1" s="31" t="s">
+      <x:c r="I1" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="J1" s="32" t="s">
+      <x:c r="J1" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="K1" s="33" t="s">
+      <x:c r="K1" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="L1" s="34" t="s">
+      <x:c r="L1" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="M1" s="35" t="s">
+      <x:c r="M1" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="N1" s="36" t="s">
+      <x:c r="N1" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="O1" s="37" t="s">
+      <x:c r="O1" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="P1" s="38" t="s">
+      <x:c r="P1" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="Q1" s="39" t="s">
+      <x:c r="Q1" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="R1" s="40" t="s">
+      <x:c r="R1" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="S1" s="41" t="s">
+      <x:c r="S1" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
@@ -3796,61 +3703,61 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
-      <x:c r="A1" s="24" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B1" s="22" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C1" s="25" t="s">
+      <x:c r="C1" s="4" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D1" s="26" t="s">
+      <x:c r="D1" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E1" s="27" t="s">
+      <x:c r="E1" s="6" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="F1" s="28" t="s">
+      <x:c r="F1" s="7" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="G1" s="29" t="s">
+      <x:c r="G1" s="8" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="H1" s="30" t="s">
+      <x:c r="H1" s="9" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="I1" s="31" t="s">
+      <x:c r="I1" s="10" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="J1" s="32" t="s">
+      <x:c r="J1" s="11" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="K1" s="33" t="s">
+      <x:c r="K1" s="12" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="L1" s="34" t="s">
+      <x:c r="L1" s="13" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="M1" s="35" t="s">
+      <x:c r="M1" s="14" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="N1" s="36" t="s">
+      <x:c r="N1" s="15" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="O1" s="37" t="s">
+      <x:c r="O1" s="16" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="P1" s="38" t="s">
+      <x:c r="P1" s="17" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="Q1" s="39" t="s">
+      <x:c r="Q1" s="18" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="R1" s="40" t="s">
+      <x:c r="R1" s="19" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="S1" s="41" t="s">
+      <x:c r="S1" s="20" t="s">
         <x:v>42</x:v>
       </x:c>
     </x:row>
@@ -3882,97 +3789,97 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="306" customHeight="1">
-      <x:c r="A1" s="24" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="15.299999999999999" customHeight="1">
-      <x:c r="A2" s="22" t="s">
+      <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" ht="7.6499999999999986" customHeight="1">
-      <x:c r="A3" s="25" t="s">
+      <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" ht="16.15" customHeight="1">
-      <x:c r="A4" s="26" t="s">
+      <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" ht="24.224999999999998" customHeight="1">
-      <x:c r="A5" s="27" t="s">
+      <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" ht="32.3" customHeight="1">
-      <x:c r="A6" s="28" t="s">
+      <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" ht="40.375" customHeight="1">
-      <x:c r="A7" s="29" t="s">
+      <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" ht="48.449999999999996" customHeight="1">
-      <x:c r="A8" s="30" t="s">
+      <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" ht="56.524999999999991" customHeight="1">
-      <x:c r="A9" s="31" t="s">
+      <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" ht="64.6" customHeight="1">
-      <x:c r="A10" s="32" t="s">
+      <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1" ht="72.675" customHeight="1">
-      <x:c r="A11" s="33" t="s">
+      <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" ht="80.75" customHeight="1">
-      <x:c r="A12" s="34" t="s">
+      <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" ht="88.825" customHeight="1">
-      <x:c r="A13" s="35" t="s">
+      <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" ht="96.899999999999991" customHeight="1">
-      <x:c r="A14" s="36" t="s">
+      <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" ht="104.975" customHeight="1">
-      <x:c r="A15" s="37" t="s">
+      <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" ht="113.04999999999998" customHeight="1">
-      <x:c r="A16" s="38" t="s">
+      <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1" ht="121.125" customHeight="1">
-      <x:c r="A17" s="39" t="s">
+      <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1" ht="129.2" customHeight="1">
-      <x:c r="A18" s="40" t="s">
+      <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1" ht="137.275" customHeight="1">
-      <x:c r="A19" s="41" t="s">
+      <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
@@ -4004,97 +3911,97 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="306" customHeight="1">
-      <x:c r="A1" s="24" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="61.199999999999996" customHeight="1">
-      <x:c r="A2" s="22" t="s">
+      <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" ht="16.999999999999996" customHeight="1">
-      <x:c r="A3" s="25" t="s">
+      <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" ht="33.999999999999993" customHeight="1">
-      <x:c r="A4" s="26" t="s">
+      <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" ht="50.999999999999993" customHeight="1">
-      <x:c r="A5" s="27" t="s">
+      <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" ht="67.999999999999986" customHeight="1">
-      <x:c r="A6" s="28" t="s">
+      <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" ht="85" customHeight="1">
-      <x:c r="A7" s="29" t="s">
+      <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" ht="101.99999999999999" customHeight="1">
-      <x:c r="A8" s="30" t="s">
+      <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" ht="118.99999999999999" customHeight="1">
-      <x:c r="A9" s="31" t="s">
+      <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" ht="135.99999999999997" customHeight="1">
-      <x:c r="A10" s="32" t="s">
+      <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1" ht="153" customHeight="1">
-      <x:c r="A11" s="33" t="s">
+      <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" ht="170" customHeight="1">
-      <x:c r="A12" s="34" t="s">
+      <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" ht="187" customHeight="1">
-      <x:c r="A13" s="35" t="s">
+      <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" ht="203.99999999999997" customHeight="1">
-      <x:c r="A14" s="36" t="s">
+      <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" ht="221" customHeight="1">
-      <x:c r="A15" s="37" t="s">
+      <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" ht="237.99999999999997" customHeight="1">
-      <x:c r="A16" s="38" t="s">
+      <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1" ht="255" customHeight="1">
-      <x:c r="A17" s="39" t="s">
+      <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1" ht="271.99999999999994" customHeight="1">
-      <x:c r="A18" s="40" t="s">
+      <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1" ht="289" customHeight="1">
-      <x:c r="A19" s="41" t="s">
+      <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3551,14 +3551,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -3658,14 +3651,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -3765,14 +3751,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -3887,14 +3866,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -4009,14 +3981,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3501,8 +3501,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="32.700624999999995" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="30.270625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="17.929375" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="34.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="41.65" customHeight="1">
@@ -3567,25 +3567,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.130625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.770881760040403" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.576914475303873" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.261586299027442" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.823491767124672" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="19.265965043512054" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="18.593249243200127" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.810464139626163" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="16.923567200086932" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.939308245815344" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="14.865178081765206" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="13.70935148706247" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="12.480625000000002" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="11.18834997106968" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="9.84236139353867" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="8.4529030532120952" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="7.0305495670377383" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="5.5861259038858915" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="3.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.43748839067235" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="22.212794146322754" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="21.84651427090435" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.337631073526644" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="20.690017462593765" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="19.9086021687247" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.999332234137242" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="17.969127752065802" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="16.825829200673418" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="15.578137772278728" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="14.235549152028497" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="12.808281250000002" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="11.3071964367356" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="9.74371887404403" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="8.12974757023093" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="6.4775658214608463" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="4.7997477284565253" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3667,25 +3667,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.130625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="51.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="72.869332473072035" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="72.296910743923689" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="71.347716287551464" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="70.028973046907609" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="68.3507174543324" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="66.325722048243733" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="63.969398266407616" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="61.299679155591029" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="58.33688289024775" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="55.103558138942333" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="51.62431245536709" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="47.925625000000004" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="44.035645017704958" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="39.983977604981369" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="35.801458397303719" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="31.519918891316593" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="27.171944187924773" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="3.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="31.929375" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="37.408133532959937" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="37.064034286337666" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="36.493446063172783" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="35.700711384374166" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="34.691863439513767" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="33.474580170611006" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="32.058125838357967" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="30.453280515501618" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="28.672258043980985" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="26.728613080215112" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="24.637137935983176" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="22.413750000000004" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="20.075370596976761" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="17.639796206122554" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="15.125563019191798" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="12.551805868872553" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="9.9381126011557939" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3501,8 +3501,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.929375" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="34.1090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="17.92546875" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="34.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="41.65" customHeight="1">
@@ -3567,25 +3567,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.1090625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.43748839067235" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="22.212794146322754" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="21.84651427090435" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.337631073526644" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="20.690017462593765" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="19.9086021687247" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.999332234137242" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="17.969127752065802" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="16.825829200673418" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="15.578137772278728" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="14.235549152028497" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="12.808281250000002" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="11.3071964367356" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="9.74371887404403" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="8.12974757023093" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="6.4775658214608463" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="4.7997477284565253" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="3.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.10125" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.421893119593509" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="22.197287835752345" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="21.831155475386467" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.322477224926757" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="20.675124433007539" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="19.894023845257632" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.985120108791232" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="17.955330529853931" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="16.812492428945397" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="15.565303494078053" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="14.223255586119505" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="12.796562500000002" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="11.29608223156575" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="9.7332343416742972" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="8.1199130464410665" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="6.4683966950728227" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="4.7912543242163093" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3667,25 +3667,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.1090625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="31.929375" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="37.408133532959937" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="37.064034286337666" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="36.493446063172783" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="35.700711384374166" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="34.691863439513767" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="33.474580170611006" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="32.058125838357967" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="30.453280515501618" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="28.672258043980985" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="26.728613080215112" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="24.637137935983176" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="22.413750000000004" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="20.075370596976761" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="17.639796206122554" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="15.125563019191798" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="12.551805868872553" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="9.9381126011557939" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="3.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="31.91765625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="37.365209376341674" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="37.021243570482049" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="36.450876619895958" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="35.658449361474332" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="34.649992645134425" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="33.433181435410411" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="32.017276400338957" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="30.413053432183816" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="28.632721636388954" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="26.689830412914098" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="24.599166337119687" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="22.376640625000004" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="20.039168039221988" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="17.604538157567958" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="15.091279983507004" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="12.518520929290521" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="9.9058412447954716" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3501,8 +3501,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.92546875" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="34.10125" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="32.700624999999995" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.270625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="41.65" customHeight="1">
@@ -3567,25 +3567,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.10125" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.10125" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.421893119593509" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="22.197287835752345" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="21.831155475386467" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.322477224926757" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="20.675124433007539" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="19.894023845257632" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.985120108791232" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="17.955330529853931" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="16.812492428945397" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="15.565303494078053" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="14.223255586119505" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="12.796562500000002" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="11.29608223156575" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="9.7332343416742972" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="8.1199130464410665" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="6.4683966950728227" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="4.7912543242163093" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.130625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="17.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.770881760040403" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.576914475303873" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.261586299027442" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="19.823491767124672" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="19.265965043512054" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="18.593249243200127" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.810464139626163" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.923567200086932" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.939308245815344" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="14.865178081765206" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="13.70935148706247" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="12.480625000000002" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="11.18834997106968" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="9.84236139353867" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="8.4529030532120952" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="7.0305495670377383" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="5.5861259038858915" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3667,25 +3667,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.10125" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="31.91765625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="37.365209376341674" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="37.021243570482049" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="36.450876619895958" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="35.658449361474332" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="34.649992645134425" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="33.433181435410411" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="32.017276400338957" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="30.413053432183816" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="28.632721636388954" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="26.689830412914098" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="24.599166337119687" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="22.376640625000004" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="20.039168039221988" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="17.604538157567958" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="15.091279983507004" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="12.518520929290521" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="9.9058412447954716" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.130625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="53.700625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="75.182787353789848" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="74.59078007910469" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="73.609108708768659" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="72.245244354659377" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="70.509566848035433" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="68.415285742752957" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="65.978339782584669" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="63.217275597755666" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="60.153106553888612" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="56.809152827603185" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="53.210863925890891" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="49.385625000000012" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="45.362548427898965" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="41.172252251501526" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="36.846627154880053" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="32.418593756903711" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="27.921852065450746" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3887,7 +3887,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" ht="61.199999999999996" customHeight="1">
+    <x:row r="2" spans="1:1" ht="81.6" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3495,7 +3495,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D8"/>
+  <x:dimension ref="A1:B8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -3505,41 +3505,39 @@
     <x:col min="2" max="2" width="30.270625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4" ht="41.65" customHeight="1">
+    <x:row r="1" spans="1:2" ht="41.65" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:4" ht="28.05" customHeight="1">
+    <x:row r="2" spans="1:2" ht="28.05" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:4">
+    <x:row r="4" spans="1:2">
       <x:c r="B4" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4">
+    <x:row r="5" spans="1:2">
       <x:c r="B5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:4">
+    <x:row r="6" spans="1:2">
       <x:c r="B6" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:4">
+    </x:row>
+    <x:row r="7" spans="1:2">
       <x:c r="B7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:4">
+    <x:row r="8" spans="1:2">
       <x:c r="B8" s="0" t="s">
         <x:v>2</x:v>
       </x:c>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3505,13 +3505,13 @@
     <x:col min="2" max="2" width="30.270625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" ht="41.65" customHeight="1">
+    <x:row r="1" spans="1:2" customFormat="1" ht="41.65" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:2" ht="28.05" customHeight="1">
+    <x:row r="2" spans="1:2" customFormat="1" ht="28.05" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3765,97 +3765,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" ht="306" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="306" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" ht="15.299999999999999" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="15.299999999999999" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" ht="7.6499999999999986" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="7.6499999999999986" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" ht="16.15" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="16.15" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" ht="24.224999999999998" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="24.224999999999998" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" ht="32.3" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="32.3" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" ht="40.375" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="40.375" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" ht="48.449999999999996" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="48.449999999999996" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" ht="56.524999999999991" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="56.524999999999991" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" ht="64.6" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="64.6" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" ht="72.675" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="72.675" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" ht="80.75" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="80.75" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" ht="88.825" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="88.825" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" ht="96.899999999999991" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="96.899999999999991" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" ht="104.975" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="104.975" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" ht="113.04999999999998" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="113.04999999999998" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" ht="121.125" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="121.125" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" ht="129.2" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="129.2" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" ht="137.275" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="137.275" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3880,97 +3880,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" ht="306" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="306" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" ht="81.6" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="81.6" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" ht="16.999999999999996" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="16.999999999999996" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" ht="33.999999999999993" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="33.999999999999993" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" ht="50.999999999999993" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="50.999999999999993" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" ht="67.999999999999986" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="67.999999999999986" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" ht="85" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="85" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" ht="101.99999999999999" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="101.99999999999999" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" ht="118.99999999999999" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="118.99999999999999" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" ht="135.99999999999997" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="135.99999999999997" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" ht="153" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="153" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" ht="170" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="170" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" ht="187" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="187" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" ht="203.99999999999997" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="203.99999999999997" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" ht="221" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="221" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" ht="237.99999999999997" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="237.99999999999997" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" ht="255" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="255" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" ht="271.99999999999994" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="271.99999999999994" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" ht="289" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="289" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -2946,7 +2946,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -2964,6 +2964,13 @@
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="20"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3504,7 +3504,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -3568,7 +3568,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:S1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -3668,7 +3668,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:S1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -3768,7 +3768,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A19"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -3883,7 +3883,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A19"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3508,17 +3508,17 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="32.700624999999995" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="30.270625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="30.790625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.190625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="41.65" customHeight="1">
+    <x:row r="1" spans="1:2" customFormat="1" ht="41.503899765014644" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="28.05" customHeight="1">
+    <x:row r="2" spans="1:2" customFormat="1" ht="27.669266510009766" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3572,25 +3572,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.130625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.770881760040403" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.576914475303873" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.261586299027442" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.823491767124672" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="19.265965043512054" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="18.593249243200127" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.810464139626163" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="16.923567200086932" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.939308245815344" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="14.865178081765206" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="13.70935148706247" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="12.480625000000002" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="11.18834997106968" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="9.84236139353867" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="8.4529030532120952" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="7.0305495670377383" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="5.5861259038858915" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="2.9306249999999996" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.150624999999998" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.315676440444804" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="18.195145171689223" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.902475307480557" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.495860622181581" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="16.978395699068074" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.3540187586588" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.627481686479374" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.80431386834416" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.890780108391489" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="12.893832950141361" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="11.821059763441216" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="10.680625000000003" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="9.48120805698084" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="8.2319372215478666" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="6.9423201990890719" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="5.6221717538374216" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="4.2815390125887012" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3672,25 +3672,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.130625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="53.700625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="75.182787353789848" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="74.59078007910469" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="73.609108708768659" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="72.245244354659377" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="70.509566848035433" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="68.415285742752957" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="65.978339782584669" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="63.217275597755666" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="60.153106553888612" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="56.809152827603185" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="53.210863925890891" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="49.385625000000012" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="45.362548427898965" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="41.172252251501526" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="36.846627154880053" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="32.418593756903711" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="27.921852065450746" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="2.9306249999999996" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="51.020625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="61.832985562903978" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="61.271495301031983" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="60.340427494313964" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="59.04686813095315" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="57.400661978777208" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="55.414337660610677" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="53.103012303890189" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="50.484276490196805" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="47.578060380308663" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="44.406482033643258" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="40.993679076470087" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="37.365625000000009" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="33.549931486433891" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="29.575638267388729" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="25.4729921140053" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="21.273216640756338" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="17.008274674887023" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3772,97 +3772,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="306" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="304.36192512512207" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="15.299999999999999" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="15.218096256256104" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="7.6499999999999986" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="7.6090481281280509" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="16.15" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="16.063546048270329" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="24.224999999999998" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="24.095319072405495" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="32.3" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="32.127092096540657" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="40.375" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="40.158865120675834" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="48.449999999999996" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="48.19063814481099" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="56.524999999999991" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="56.222411168946159" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="64.6" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="64.254184193081315" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="72.675" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="72.285957217216492" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="80.75" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="80.317730241351668" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="88.825" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="88.349503265486845" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="96.899999999999991" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="96.381276289621979" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="104.975" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="104.41304931375716" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="113.04999999999998" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="112.44482233789232" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="121.125" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="120.4765953620275" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="129.2" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="128.50836838616263" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="137.275" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="136.54014141029782" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3887,97 +3887,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="306" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="304.36192512512207" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="81.6" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="83.007799530029288" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="16.999999999999996" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="17.2932915687561" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="33.999999999999993" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="34.5865831375122" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="50.999999999999993" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="51.8798747062683" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="67.999999999999986" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="69.1731662750244" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="85" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="86.466457843780518" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="101.99999999999999" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="103.75974941253661" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="118.99999999999999" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="121.0530409812927" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="135.99999999999997" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="138.3463325500488" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="153" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="155.6396241188049" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="170" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="172.93291568756104" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="187" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="190.22620725631714" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="203.99999999999997" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="207.51949882507321" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="221" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="224.81279039382932" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="237.99999999999997" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="242.10608196258539" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="255" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="259.39937353134155" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="271.99999999999994" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="276.6926651000976" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="289" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="293.98595666885376" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3575,14 +3575,14 @@
     <x:col min="1" max="1" width="2.9306249999999996" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.150624999999998" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.315676440444804" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.195145171689223" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="18.195145171689227" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="17.902475307480557" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="17.495860622181581" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="16.978395699068074" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="16.3540187586588" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="15.627481686479374" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.80431386834416" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.890780108391489" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.804313868344162" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.890780108391487" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="12.893832950141361" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="11.821059763441216" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="10.680625000000003" style="0" customWidth="1"/>
@@ -3674,18 +3674,18 @@
   <x:cols>
     <x:col min="1" max="1" width="2.9306249999999996" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="51.020625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="61.832985562903978" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="61.832985562903971" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="61.271495301031983" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="60.340427494313964" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="59.04686813095315" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="57.400661978777208" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="55.414337660610677" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="60.340427494313957" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="59.046868130953143" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="57.400661978777215" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="55.41433766061067" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="53.103012303890189" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="50.484276490196805" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="50.484276490196812" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="47.578060380308663" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="44.406482033643258" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="40.993679076470087" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="37.365625000000009" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="40.99367907647008" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="37.365625" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="33.549931486433891" style="0" customWidth="1"/>
     <x:col min="16" max="16" width="29.575638267388729" style="0" customWidth="1"/>
     <x:col min="17" max="17" width="25.4729921140053" style="0" customWidth="1"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3004,206 +3004,206 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="39">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="21">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="10" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="15" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="20" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="25" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="30" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="35" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="40" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="50" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="55" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="60" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="65" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="75" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="80" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="85" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3512,17 +3512,15 @@
     <x:col min="2" max="2" width="28.190625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="41.503899765014644" customHeight="1">
+    <x:row r="1" spans="1:2" customFormat="1" ht="41.5039" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="27.669266510009766" customHeight="1">
+    </x:row>
+    <x:row r="2" spans="1:2" customFormat="1" ht="27.669267" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="B4" s="0" t="s">
@@ -3572,25 +3570,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.9306249999999996" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.150624999999998" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.315676440444804" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.195145171689227" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="17.902475307480557" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.495860622181581" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="16.978395699068074" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.3540187586588" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="15.627481686479374" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.804313868344162" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.890780108391487" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="12.893832950141361" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="11.821059763441216" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="10.680625000000003" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="9.48120805698084" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="8.2319372215478666" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="6.9423201990890719" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="5.6221717538374216" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="4.2815390125887012" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="2.930625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.315676" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="18.195145" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.902475" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.495861" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="16.978396" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.354019" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.627482" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.804314" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.89078" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="12.893833" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="11.82106" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="10.680625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="9.481208" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="8.231937" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="6.94232" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="5.622172" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="4.281539" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3672,25 +3670,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.9306249999999996" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="2.930625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="51.020625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="61.832985562903971" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="61.271495301031983" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="60.340427494313957" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="59.046868130953143" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="57.400661978777215" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="55.41433766061067" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="53.103012303890189" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="50.484276490196812" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="47.578060380308663" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="44.406482033643258" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="40.99367907647008" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="61.832986" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="61.271495" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="60.340427" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="59.046868" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="57.400662" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="55.414338" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="53.103012" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="50.484276" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="47.57806" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="44.406482" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="40.993679" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="37.365625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="33.549931486433891" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="29.575638267388729" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="25.4729921140053" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="21.273216640756338" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="17.008274674887023" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="33.549931" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="29.575638" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="25.472992" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="21.273217" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="17.008275" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3772,97 +3770,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="304.36192512512207" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="304.361925" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="15.218096256256104" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="7.6090481281280509" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="7.609048" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="16.063546048270329" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="16.063546" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="24.095319072405495" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="24.095319" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="32.127092096540657" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="32.127092" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="40.158865120675834" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="40.158865" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="48.19063814481099" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="48.190638" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="56.222411168946159" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="56.222411" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="64.254184193081315" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="64.254184" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="72.285957217216492" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="72.285957" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="80.317730241351668" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="80.31773" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="88.349503265486845" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="88.349503" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="96.381276289621979" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="96.381276" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="104.41304931375716" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="104.413049" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="112.44482233789232" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="112.444822" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="120.4765953620275" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="120.476595" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="128.50836838616263" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="128.508368" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="136.54014141029782" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="136.540141" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3887,97 +3885,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="304.36192512512207" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="304.361925" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="83.007799530029288" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="83.0078" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="17.2932915687561" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="17.293292" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="34.5865831375122" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="34.586583" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="51.8798747062683" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="51.879875" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="69.1731662750244" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="69.173166" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="86.466457843780518" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="86.466458" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="103.75974941253661" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="103.759749" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="121.0530409812927" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="121.053041" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="138.3463325500488" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="138.346333" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="155.6396241188049" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="155.639624" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="172.93291568756104" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="172.932916" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="190.22620725631714" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="190.226207" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="207.51949882507321" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="207.519499" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="224.81279039382932" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="224.81279" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="242.10608196258539" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="242.106082" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="259.39937353134155" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="259.399374" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="276.6926651000976" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="276.692665" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="293.98595666885376" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="293.985957" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>
